--- a/data/human/adult/validation/Scenarios/MechanicalVentilatorValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/MechanicalVentilatorValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_multiplex_ventilation\source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D0E8B3-453A-4E1A-8420-722B912D644C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A93F318-32F6-4627-BBD8-48E35FDCC787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="2370" windowWidth="39090" windowHeight="20520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="51">
   <si>
     <t>Description</t>
   </si>
@@ -142,16 +142,7 @@
     <t>&gt;20% @cite radermacher2017fifty</t>
   </si>
   <si>
-    <t>&gt;1% @cite radermacher2017fifty</t>
-  </si>
-  <si>
     <t>20 (ventilator setting)</t>
-  </si>
-  <si>
-    <t>21 (ventilator setting)</t>
-  </si>
-  <si>
-    <t>22 (ventilator setting)</t>
   </si>
   <si>
     <t>88%-95% @cite mortelliti2002acute (ventilator target)</t>
@@ -198,6 +189,9 @@
   <si>
     <t>Use apnea to mimic neuromuscular blockade
 Ventilator settings chosen for target tidal volume and oxygen saturation</t>
+  </si>
+  <si>
+    <t>2%-5% @cite Levitzky2013pulmonary</t>
   </si>
 </sst>
 </file>
@@ -1291,13 +1285,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>9</v>
@@ -1391,8 +1385,8 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1450,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>8</v>
@@ -1480,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>8</v>
@@ -1578,7 +1572,7 @@
         <v>9</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>10</v>
@@ -1590,25 +1584,25 @@
         <v>10</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>11</v>
@@ -1641,7 +1635,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>10</v>
@@ -1653,25 +1647,25 @@
         <v>10</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U4" s="11" t="s">
         <v>11</v>
@@ -1688,7 +1682,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>8</v>
@@ -1706,7 +1700,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>10</v>
@@ -1718,25 +1712,25 @@
         <v>10</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>11</v>
@@ -1771,7 +1765,7 @@
         <v>9</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>10</v>
@@ -1789,19 +1783,19 @@
         <v>10</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U6" s="11" t="s">
         <v>11</v>
@@ -1836,7 +1830,7 @@
         <v>9</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>10</v>
@@ -1854,19 +1848,19 @@
         <v>10</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U7" s="11" t="s">
         <v>11</v>

--- a/data/human/adult/validation/Scenarios/MechanicalVentilatorValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/MechanicalVentilatorValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_multiplex_ventilation\source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A93F318-32F6-4627-BBD8-48E35FDCC787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230E6F2F-EA6E-4FEF-934F-C3AEFDB8CEEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1385,8 +1385,8 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/human/adult/validation/Scenarios/MechanicalVentilatorValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/MechanicalVentilatorValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_multiplex_ventilation\source\data\human\adult\validation\Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_3x\source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230E6F2F-EA6E-4FEF-934F-C3AEFDB8CEEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C32998-9144-4EBF-A03A-87A624B4B15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -106,18 +106,6 @@
     <t>Ventilator settings chosen for target tidal volume and oxygen saturation</t>
   </si>
   <si>
-    <t>Apnea (Dyspnea severity = 1.0)
-Turn on P-CMV mechanical ventilator and provide supplemental oxygen</t>
-  </si>
-  <si>
-    <t>Moderate ARDS (severity = 0.3)
-Adjust ventilator settings</t>
-  </si>
-  <si>
-    <t>Severe ARDS (severity = 0.9)
-Adjust ventilator settings</t>
-  </si>
-  <si>
     <t>Ventilator settings chosen for target tidal volume and supplemental oxygen at max (1.0 fraction O2)</t>
   </si>
   <si>
@@ -187,11 +175,19 @@
     <t>Reduced  further  (artificial airway) @cite mortelliti2002acute @cite arnal2018parameters</t>
   </si>
   <si>
-    <t>Use apnea to mimic neuromuscular blockade
-Ventilator settings chosen for target tidal volume and oxygen saturation</t>
-  </si>
-  <si>
     <t>2%-5% @cite Levitzky2013pulmonary</t>
+  </si>
+  <si>
+    <t>Apnea (Dyspnea severity = 1.0); Turn on P-CMV mechanical ventilator and provide supplemental oxygen</t>
+  </si>
+  <si>
+    <t>Moderate ARDS (severity = 0.3); Adjust ventilator settings</t>
+  </si>
+  <si>
+    <t>Severe ARDS (severity = 0.9); Adjust ventilator settings</t>
+  </si>
+  <si>
+    <t>Use apnea to mimic neuromuscular blockade; Ventilator settings chosen for target tidal volume and oxygen saturation</t>
   </si>
 </sst>
 </file>
@@ -1285,13 +1281,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>9</v>
@@ -1385,8 +1381,8 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,13 +1446,13 @@
         <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O1" s="16" t="s">
         <v>8</v>
@@ -1474,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>8</v>
@@ -1556,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>8</v>
@@ -1572,37 +1568,37 @@
         <v>9</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>11</v>
@@ -1635,54 +1631,54 @@
         <v>9</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>8</v>
@@ -1700,37 +1696,37 @@
         <v>9</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="s">
+      <c r="S5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>11</v>
@@ -1741,7 +1737,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>8</v>
@@ -1765,37 +1761,37 @@
         <v>9</v>
       </c>
       <c r="J6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="S6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U6" s="11" t="s">
         <v>11</v>
@@ -1806,13 +1802,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>8</v>
@@ -1830,37 +1826,37 @@
         <v>9</v>
       </c>
       <c r="J7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="S7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U7" s="11" t="s">
         <v>11</v>

--- a/data/human/adult/validation/Scenarios/MechanicalVentilatorValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/MechanicalVentilatorValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_3x\source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C32998-9144-4EBF-A03A-87A624B4B15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBB9F1F-841F-4BAA-AB50-DF52860D9BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31755" yWindow="2955" windowWidth="24210" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -181,13 +181,13 @@
     <t>Apnea (Dyspnea severity = 1.0); Turn on P-CMV mechanical ventilator and provide supplemental oxygen</t>
   </si>
   <si>
-    <t>Moderate ARDS (severity = 0.3); Adjust ventilator settings</t>
-  </si>
-  <si>
     <t>Severe ARDS (severity = 0.9); Adjust ventilator settings</t>
   </si>
   <si>
     <t>Use apnea to mimic neuromuscular blockade; Ventilator settings chosen for target tidal volume and oxygen saturation</t>
+  </si>
+  <si>
+    <t>Moderate ARDS (severity = 0.6); Adjust ventilator settings</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>8</v>
@@ -1737,7 +1737,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>8</v>
@@ -1802,7 +1802,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>8</v>

--- a/data/human/adult/validation/Scenarios/MechanicalVentilatorValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/MechanicalVentilatorValidation.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_3x\source\data\human\adult\validation\Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_ventilator_validation\source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBB9F1F-841F-4BAA-AB50-DF52860D9BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6F837-0653-43FC-9342-4A846C4DBC84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31755" yWindow="2955" windowWidth="24210" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13245" yWindow="2865" windowWidth="27585" windowHeight="26235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="21" r:id="rId1"/>
-    <sheet name="ARDS" sheetId="35" r:id="rId2"/>
+    <sheet name="Scenarios" sheetId="35" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ARDS!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$6:$D$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Scenarios!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,31 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="51">
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenario </t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Sampled Scenario Time (s)</t>
-  </si>
-  <si>
-    <t>Oxygen Saturation</t>
-  </si>
-  <si>
-    <t>Tidal Volume (mL)</t>
-  </si>
-  <si>
-    <t>Respiration Rate (breaths/min)</t>
-  </si>
-  <si>
-    <t>Segment</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="80">
   <si>
     <t>|</t>
   </si>
@@ -76,118 +50,229 @@
     <t>---</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Decent</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>&lt;/span&gt;|&lt;span class="warning"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/span&gt;|&lt;span class="danger"&gt;</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Action Occurrence Time (s)</t>
-  </si>
-  <si>
     <t>Mild ARDS (severity = 0.3)</t>
   </si>
   <si>
-    <t>Tracheal Intubation</t>
-  </si>
-  <si>
-    <t>Ventilator settings chosen for target tidal volume and oxygen saturation</t>
-  </si>
-  <si>
-    <t>Ventilator settings chosen for target tidal volume and supplemental oxygen at max (1.0 fraction O2)</t>
-  </si>
-  <si>
-    <t>Chronic condition</t>
-  </si>
-  <si>
-    <t>Shunt Fraction</t>
-  </si>
-  <si>
-    <t>&gt;200 @cite villar2013universal</t>
-  </si>
-  <si>
-    <t>100-200 @cite villar2013universal</t>
-  </si>
-  <si>
-    <t>&lt;100 @cite villar2013universal</t>
-  </si>
-  <si>
-    <t>&gt;40% @cite radermacher2017fifty</t>
-  </si>
-  <si>
-    <t>&gt;20% @cite radermacher2017fifty</t>
-  </si>
-  <si>
     <t>20 (ventilator setting)</t>
   </si>
   <si>
-    <t>88%-95% @cite mortelliti2002acute (ventilator target)</t>
-  </si>
-  <si>
-    <t>Reduced</t>
-  </si>
-  <si>
-    <t>6 mL/kg (ideal body weight) = 450 mL @cite mortelliti2002acute (ventilator target)</t>
-  </si>
-  <si>
-    <t>Reduced @cite mortelliti2002acute</t>
-  </si>
-  <si>
     <t>Pulmonary Compliance (L/cmH2O)</t>
   </si>
   <si>
-    <t>Increased @cite mortelliti2002acute</t>
-  </si>
-  <si>
-    <t>Reduced (100% FiO2)</t>
-  </si>
-  <si>
-    <t>Reduced (fatigue)</t>
-  </si>
-  <si>
-    <t>MechanicalVentilatorPressureControlledARDSResults</t>
-  </si>
-  <si>
-    <t>Tests the P-CMV mechanical ventilator in treating ARDS patients</t>
-  </si>
-  <si>
-    <t>Carrico Index [PaO2/FiO2] (mmHg)</t>
-  </si>
-  <si>
-    <t>Reduced further @cite mortelliti2002acute</t>
-  </si>
-  <si>
-    <t>Reduced  further (artificial airway) @cite arnal2018parameters</t>
-  </si>
-  <si>
-    <t>Reduced  further  (artificial airway) @cite mortelliti2002acute @cite arnal2018parameters</t>
-  </si>
-  <si>
-    <t>2%-5% @cite Levitzky2013pulmonary</t>
-  </si>
-  <si>
-    <t>Apnea (Dyspnea severity = 1.0); Turn on P-CMV mechanical ventilator and provide supplemental oxygen</t>
-  </si>
-  <si>
-    <t>Severe ARDS (severity = 0.9); Adjust ventilator settings</t>
-  </si>
-  <si>
-    <t>Use apnea to mimic neuromuscular blockade; Ventilator settings chosen for target tidal volume and oxygen saturation</t>
-  </si>
-  <si>
-    <t>Moderate ARDS (severity = 0.6); Adjust ventilator settings</t>
+    <t>Ventilator Settings</t>
+  </si>
+  <si>
+    <t>Patient State</t>
+  </si>
+  <si>
+    <t>15 (ventilator setting)</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>Pulmonary Resistance (cmH2O-s/L)</t>
+  </si>
+  <si>
+    <t>PaO2/FiO2 (mmHg)</t>
+  </si>
+  <si>
+    <t>Respiration Rate (bpm)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Arterial Carbon Dioxide Pressure (mmHg)</t>
+  </si>
+  <si>
+    <t>Arterial Oxygen Pressure (mmHg)</t>
+  </si>
+  <si>
+    <t>264-366 @cite arnal2013feasibility, @cite ferguson2012berlin</t>
+  </si>
+  <si>
+    <t>85-114 @cite arnal2013feasibility</t>
+  </si>
+  <si>
+    <t>35-42 @cite arnal2013feasibility</t>
+  </si>
+  <si>
+    <t>12-17 @cite arnal2013feasibility, @cite arnal2018parameters</t>
+  </si>
+  <si>
+    <t>7.27-7.40 @cite arnal2013feasibility</t>
+  </si>
+  <si>
+    <t>20-54 @cite arnal2013feasibility, @cite arnal2018parameters</t>
+  </si>
+  <si>
+    <t>96.4-98.5 @cite arnal2013feasibility, @cite kacmarek2016egan</t>
+  </si>
+  <si>
+    <t>Alveolar Dead Space (L)</t>
+  </si>
+  <si>
+    <t>~0 @cite Levitzky2013pulmonary</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation (%)</t>
+  </si>
+  <si>
+    <t>2-5 @cite Levitzky2013pulmonary, @cite radermacher2017fifty, @cite petersson2014gas</t>
+  </si>
+  <si>
+    <t>Inspiratory-Expiratory Ratio</t>
+  </si>
+  <si>
+    <t>0.6 (ventilator setting)</t>
+  </si>
+  <si>
+    <t>15-21 @cite arnal2013feasibility</t>
+  </si>
+  <si>
+    <t>0.4-0.8 @cite arnal2013feasibility</t>
+  </si>
+  <si>
+    <t>17 (ventilator setting)</t>
+  </si>
+  <si>
+    <t>0.9 (ventilator setting)</t>
+  </si>
+  <si>
+    <t>No change, 10-16 @cite arnal2013feasibility, @cite arnal2018parameters</t>
+  </si>
+  <si>
+    <t>Decrease, 20-54 @cite arnal2013feasibility, @cite arnal2018parameters</t>
+  </si>
+  <si>
+    <t>45-57 @cite arnal2013feasibility</t>
+  </si>
+  <si>
+    <t>103-133 @cite arnal2013feasibility</t>
+  </si>
+  <si>
+    <t>98.0-99.0 @cite arnal2013feasibility, @cite kacmarek2016egan</t>
+  </si>
+  <si>
+    <t>Increase @cite nuckton2002pulmonary</t>
+  </si>
+  <si>
+    <t>Moderate ARDS (severity = 0.6)</t>
+  </si>
+  <si>
+    <t>81-117 @cite arnal2013feasibility</t>
+  </si>
+  <si>
+    <t>Decrease, 200-300 @cite ferguson2012berlin</t>
+  </si>
+  <si>
+    <t>Decrease, 100-200 @cite ferguson2012berlin</t>
+  </si>
+  <si>
+    <t>95.9-98.6 @cite arnal2013feasibility, @cite kacmarek2016egan</t>
+  </si>
+  <si>
+    <t>Severe ARDS (severity = 0.9)</t>
+  </si>
+  <si>
+    <t>25 (ventilator setting)</t>
+  </si>
+  <si>
+    <t>56-83 @cite arnal2013feasibility</t>
+  </si>
+  <si>
+    <t>Decrease, &lt;100 @cite ferguson2012berlin</t>
+  </si>
+  <si>
+    <t>88.8-96.1 @cite arnal2013feasibility, @cite kacmarek2016egan</t>
+  </si>
+  <si>
+    <t>Increase, &gt;40% @cite radermacher2017fifty, @cite petersson2014gas</t>
+  </si>
+  <si>
+    <t>Increase, &gt;20% @cite radermacher2017fifty, @cite petersson2014gas</t>
+  </si>
+  <si>
+    <t>Increase, &gt;10% @cite radermacher2017fifty, @cite petersson2014gas</t>
+  </si>
+  <si>
+    <t>Mild COPD (severity = 0.3)</t>
+  </si>
+  <si>
+    <t>12 (ventilator setting)</t>
+  </si>
+  <si>
+    <t>0.43 (ventilator setting)</t>
+  </si>
+  <si>
+    <t>Increase, 17-26 @cite arnal2013feasibility, @cite arnal2018parameters</t>
+  </si>
+  <si>
+    <t>Increase, 46-61 @cite arnal2013feasibility, @cite arnal2018parameters</t>
+  </si>
+  <si>
+    <t>44-67 @cite arnal2013feasibility</t>
+  </si>
+  <si>
+    <t>7.2-7.31 @cite arnal2013feasibility</t>
+  </si>
+  <si>
+    <t>7.15-7.34 @cite arnal2013feasibility</t>
+  </si>
+  <si>
+    <t>77-94 @cite arnal2013feasibility</t>
+  </si>
+  <si>
+    <t>Decrease, 206-295 @cite ferguson2012berlin</t>
+  </si>
+  <si>
+    <t>95.2-97.3 @cite arnal2013feasibility, @cite kacmarek2016egan</t>
+  </si>
+  <si>
+    <t>Increase @cite Levitzky2013pulmonary</t>
+  </si>
+  <si>
+    <t>Increase @cite boerrigter2011cardiac</t>
+  </si>
+  <si>
+    <t>Pulmonary Shunt Fraction (%)</t>
+  </si>
+  <si>
+    <t>Moderate COPD (severity = 0.6)</t>
+  </si>
+  <si>
+    <t>14 (ventilator setting)</t>
+  </si>
+  <si>
+    <t>Severe COPD (severity = 0.9)</t>
+  </si>
+  <si>
+    <t>Mode: PC-CMV&lt;br&gt;Inspiratory Pressure Target: set empirically to achieve VT Target&lt;br&gt;VT Target (mL/kg): 7&lt;br&gt;VT Target (mL): 527&lt;br&gt;PEEP (cm H2O): 5&lt;br&gt;FiO2 (%): 30&lt;br&gt;Mandatory Rate (bpm): 15 &lt;br&gt;I:E: 0.60&lt;br&gt;Minute Ventilation (L/min): 7.9&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Mode: VC-CMV&lt;br&gt;Inspiratory Pressure Target: set empirically to achieve VT Target&lt;br&gt;VT Target (mL/kg): 7&lt;br&gt;VT Target (mL): 527&lt;br&gt;PEEP (cm H2O): 5&lt;br&gt;FiO2 (%): 30&lt;br&gt;Mandatory Rate (bpm): 15 &lt;br&gt;I:E: 0.60&lt;br&gt;Minute Ventilation (L/min): 7.9&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Mode: VC-AC&lt;br&gt;Inspiratory Pressure Target: set empirically to achieve VT Target&lt;br&gt;VT Target (mL/kg): 7&lt;br&gt;VT Target (mL): 527&lt;br&gt;PEEP (cm H2O): 5&lt;br&gt;FiO2 (%): 30&lt;br&gt;Mandatory Rate (bpm): 15 &lt;br&gt;I:E: 0.60&lt;br&gt;Minute Ventilation (L/min): 7.9&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Mode: PC-CMV&lt;br&gt;Inspiratory Pressure Target: set empirically to achieve VT Target&lt;br&gt;VT Target (mL/kg): 6&lt;br&gt;VT Target (mL): 452&lt;br&gt;PEEP (cm H2O): 11&lt;br&gt;FiO2 (%): 40&lt;br&gt;Mandatory Rate (bpm): 17&lt;br&gt;I:E: 0.90&lt;br&gt;Minute Ventilation (L/min): 7.6&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Mode: PC-CMV&lt;br&gt;Inspiratory Pressure Target: set empirically to achieve VT Target&lt;br&gt;VT Target (mL/kg): 6&lt;br&gt;VT Target (mL): 452&lt;br&gt;PEEP (cm H2O): 11&lt;br&gt;FiO2 (%): 70&lt;br&gt;Mandatory Rate (bpm): 20&lt;br&gt;I:E: 0.90&lt;br&gt;Minute Ventilation (L/min): 9.0&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Mode: PC-CMV&lt;br&gt;Inspiratory Pressure Target: set empirically to achieve VT Target&lt;br&gt;VT Target (mL/kg): 6&lt;br&gt;VT Target (mL): 452&lt;br&gt;PEEP (cm H2O): 11&lt;br&gt;FiO2 (%): 100&lt;br&gt;Mandatory Rate (bpm): 25&lt;br&gt;I:E: 0.90&lt;br&gt;Minute Ventilation (L/min): 11.5&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Mode: PC-CMV&lt;br&gt;Inspiratory Pressure Target: set empirically to achieve VT Target&lt;br&gt;VT Target (mL/kg): 9.0&lt;br&gt;VT Target (mL): 678&lt;br&gt;PEEP (cm H2O): 8&lt;br&gt;FiO2 (%): 31&lt;br&gt;Mandatory Rate (bpm): 12&lt;br&gt;I:E: 0.43&lt;br&gt;Minute Ventilation (L/min): 8.0&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Mode: PC-CMV&lt;br&gt;Inspiratory Pressure Target: set empirically to achieve VT Target&lt;br&gt;VT Target (mL/kg): 8.5&lt;br&gt;VT Target (mL): 640&lt;br&gt;PEEP (cm H2O): 8&lt;br&gt;FiO2 (%): 31&lt;br&gt;Mandatory Rate (bpm): 14&lt;br&gt;I:E: 0.43&lt;br&gt;Minute Ventilation (L/min): 9.0&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Mode: PC-CMV&lt;br&gt;Inspiratory Pressure Target: set empirically to achieve VT Target&lt;br&gt;VT Target (mL/kg): 9.0&lt;br&gt;VT Target (mL): 678&lt;br&gt;PEEP (cm H2O): 8&lt;br&gt;FiO2 (%): 40&lt;br&gt;Mandatory Rate (bpm): 15&lt;br&gt;I:E: 0.43&lt;br&gt;Minute Ventilation (L/min): 10.2&lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -518,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -533,19 +618,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -679,19 +751,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -717,7 +789,7 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -725,13 +797,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,15 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -768,33 +828,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1180,697 +1219,965 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="40.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="2" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="131.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="40.140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="24">
-        <v>6</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="25">
-        <v>0</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="26">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="24">
-        <f>SUM(F3:F3)</f>
-        <v>6</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="25">
-        <f>SUM(H3:H3)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="26">
-        <f>SUM(J3:J3)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="8"/>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="53" orientation="landscape" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0">
-    <oddHeader>&amp;L&amp;A</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="2" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="46.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30" style="15" customWidth="1"/>
-    <col min="13" max="13" width="32.42578125" style="20" customWidth="1"/>
-    <col min="14" max="14" width="30.5703125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="32.42578125" style="20" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="33" style="14" customWidth="1"/>
-    <col min="18" max="18" width="26.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="33" style="20" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" style="15" customWidth="1"/>
-    <col min="21" max="21" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="33.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="33.85546875" style="15" customWidth="1"/>
+    <col min="20" max="20" width="30" style="11" customWidth="1"/>
+    <col min="21" max="21" width="33.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="33" style="10" customWidth="1"/>
+    <col min="24" max="24" width="30.5703125" style="11" customWidth="1"/>
+    <col min="25" max="25" width="33.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.5703125" style="11" customWidth="1"/>
+    <col min="27" max="27" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="M1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="S3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
+    </row>
+    <row r="4" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="G7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="18" t="s">
+      <c r="S7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="11" t="s">
-        <v>8</v>
+      <c r="M8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>8</v>
+    <row r="9" spans="1:27" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="11" t="s">
+    <row r="10" spans="1:27" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>11</v>
+      <c r="G11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="6">
-        <v>60</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6">
-        <v>60</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="6">
-        <v>360</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="6">
-        <v>360</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="6">
-        <v>660</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="6">
-        <v>660</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="6">
-        <v>960</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K14" s="15"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
